--- a/xlsx/country_comparison/field_concerns_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_concerns_manual_positive.xlsx
@@ -56,25 +56,28 @@
     <t xml:space="preserve">Money; own income; cost of living; inflation</t>
   </si>
   <si>
+    <t xml:space="preserve">Other topic; unclear; vague</t>
+  </si>
+  <si>
     <t xml:space="preserve">Health; healthcare system</t>
   </si>
   <si>
-    <t xml:space="preserve">Other topic; unclear; vague</t>
+    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
   </si>
   <si>
     <t xml:space="preserve">War; peace</t>
   </si>
   <si>
-    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
+    <t xml:space="preserve">Criticism of immigration; national preference</t>
+  </si>
+  <si>
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
-    <t xml:space="preserve">Criticism of immigration; national preference</t>
+    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
     <t xml:space="preserve">International issues</t>
@@ -86,40 +89,37 @@
     <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
-    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
   <si>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
+  </si>
+  <si>
     <t xml:space="preserve">Own country referred</t>
   </si>
   <si>
-    <t xml:space="preserve">Corruption; criticism of the government</t>
-  </si>
-  <si>
     <t xml:space="preserve">Housing</t>
   </si>
   <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
-    <t xml:space="preserve">Old age; retirement; ageing society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
+    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social division; fake news; (social) media</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relationships; love; emotions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social division; fake news; (social) media</t>
   </si>
   <si>
     <t xml:space="preserve">Happiness; peace of mind</t>
@@ -509,10 +509,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279223801307208</v>
+        <v>0.304432416539754</v>
       </c>
       <c r="C2" t="n">
-        <v>0.24535342190454</v>
+        <v>0.244717520108542</v>
       </c>
       <c r="D2" t="n">
         <v>0.2485128468406</v>
@@ -521,13 +521,13 @@
         <v>0.18131793588152</v>
       </c>
       <c r="F2" t="n">
-        <v>0.223545112289864</v>
+        <v>0.222458815536704</v>
       </c>
       <c r="G2" t="n">
-        <v>0.287732555285818</v>
+        <v>0.285778183004776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.203017066994695</v>
+        <v>0.201207187142352</v>
       </c>
       <c r="I2" t="n">
         <v>0.355955905285415</v>
@@ -536,13 +536,13 @@
         <v>0.151729045616648</v>
       </c>
       <c r="K2" t="n">
-        <v>0.184647600778712</v>
+        <v>0.220671091728308</v>
       </c>
       <c r="L2" t="n">
         <v>0.184011212415043</v>
       </c>
       <c r="M2" t="n">
-        <v>0.419544197965084</v>
+        <v>0.411143504267138</v>
       </c>
     </row>
     <row r="3">
@@ -550,40 +550,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.127052972164031</v>
+        <v>0.130023815709387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.15083623483065</v>
+        <v>0.0930577292263979</v>
       </c>
       <c r="D3" t="n">
-        <v>0.101447981598101</v>
+        <v>0.0936072955585737</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0448387630794269</v>
+        <v>0.0857242781719562</v>
       </c>
       <c r="F3" t="n">
-        <v>0.193914133606888</v>
+        <v>0.0858659465786105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.260214942870967</v>
+        <v>0.110377293727914</v>
       </c>
       <c r="H3" t="n">
-        <v>0.201119940650642</v>
+        <v>0.0931670600736179</v>
       </c>
       <c r="I3" t="n">
-        <v>0.203481771372987</v>
+        <v>0.0927954723068872</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0755226653052408</v>
+        <v>0.143585986024537</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0785570024972565</v>
+        <v>0.277171341690393</v>
       </c>
       <c r="L3" t="n">
-        <v>0.089065270203691</v>
+        <v>0.287084405330801</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0906023997125443</v>
+        <v>0.104990282260483</v>
       </c>
     </row>
     <row r="4">
@@ -591,40 +591,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.124443712803257</v>
+        <v>0.122438757950822</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0922432431297019</v>
+        <v>0.151133459473737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0936072955585737</v>
+        <v>0.101447981598101</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0857242781719562</v>
+        <v>0.0448387630794269</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0862852417130843</v>
+        <v>0.192971825848193</v>
       </c>
       <c r="G4" t="n">
-        <v>0.111132139045531</v>
+        <v>0.265239801487141</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0850100022133908</v>
+        <v>0.199326973517994</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0927954723068872</v>
+        <v>0.203481771372987</v>
       </c>
       <c r="J4" t="n">
-        <v>0.143585986024537</v>
+        <v>0.0755226653052408</v>
       </c>
       <c r="K4" t="n">
-        <v>0.277735194374868</v>
+        <v>0.0757219102353771</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2870844053308</v>
+        <v>0.0890652702036911</v>
       </c>
       <c r="M4" t="n">
-        <v>0.11029599140065</v>
+        <v>0.110216701989078</v>
       </c>
     </row>
     <row r="5">
@@ -632,40 +632,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.110632486768193</v>
+        <v>0.113117130809889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.154654825211306</v>
+        <v>0.0636614491480464</v>
       </c>
       <c r="D5" t="n">
-        <v>0.101050316716917</v>
+        <v>0.0706336835345524</v>
       </c>
       <c r="E5" t="n">
-        <v>0.203945354956949</v>
+        <v>0.114179690094334</v>
       </c>
       <c r="F5" t="n">
-        <v>0.311849019011062</v>
+        <v>0.0493983462506671</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0963378680238052</v>
+        <v>0.00196393994566121</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0649061805520628</v>
+        <v>0.0293196608605389</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0729908181359556</v>
+        <v>0.0651968508366937</v>
       </c>
       <c r="J5" t="n">
-        <v>0.257701090636818</v>
+        <v>0.0590216027029047</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0146308084495792</v>
+        <v>0.112878680613525</v>
       </c>
       <c r="L5" t="n">
-        <v>0.073987030062606</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0566188536839367</v>
+        <v>0.176936085664981</v>
       </c>
     </row>
     <row r="6">
@@ -673,40 +673,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.103895270107088</v>
+        <v>0.0922093474217277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0638268742873301</v>
+        <v>0.154253994114889</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0706336835345524</v>
+        <v>0.101050316716917</v>
       </c>
       <c r="E6" t="n">
-        <v>0.114179690094334</v>
+        <v>0.203945354956949</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0496395651163439</v>
+        <v>0.310333617607928</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00197737088622873</v>
+        <v>0.0956835101646698</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0295833942997995</v>
+        <v>0.0643275474833623</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0651968508366937</v>
+        <v>0.0729908181359556</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0590216027029047</v>
+        <v>0.257701090636818</v>
       </c>
       <c r="K6" t="n">
-        <v>0.132318485189337</v>
+        <v>0.0121345524570602</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.073987030062606</v>
       </c>
       <c r="M6" t="n">
-        <v>0.196583292528036</v>
+        <v>0.0539650499495346</v>
       </c>
     </row>
     <row r="7">
@@ -714,10 +714,10 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.076191250083525</v>
+        <v>0.0752480436553213</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0916475651925847</v>
+        <v>0.0914100349765703</v>
       </c>
       <c r="D7" t="n">
         <v>0.17979998474085</v>
@@ -726,13 +726,13 @@
         <v>0.0574339180531485</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0928680107220781</v>
+        <v>0.0924167272317507</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00681656461133018</v>
+        <v>0.00677026430681622</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0976271377990597</v>
+        <v>0.0967568001847888</v>
       </c>
       <c r="I7" t="n">
         <v>0.0980261265451869</v>
@@ -741,13 +741,13 @@
         <v>0.0429571273282542</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0176107488195312</v>
+        <v>0.020030908990007</v>
       </c>
       <c r="L7" t="n">
         <v>0.00817441701783805</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0713728165039641</v>
+        <v>0.0827003343431248</v>
       </c>
     </row>
     <row r="8">
@@ -755,40 +755,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.075823170510732</v>
+        <v>0.0703256182582441</v>
       </c>
       <c r="C8" t="n">
-        <v>0.108741577303867</v>
+        <v>0.0929571362280953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0929406412366898</v>
+        <v>0.0571096359244344</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0937198986013157</v>
+        <v>0.135540540735228</v>
       </c>
       <c r="F8" t="n">
-        <v>0.180663357663009</v>
+        <v>0.0626569864151614</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0365283232237752</v>
+        <v>0.0351785904801931</v>
       </c>
       <c r="H8" t="n">
-        <v>0.116653042012519</v>
+        <v>0.0680482625090797</v>
       </c>
       <c r="I8" t="n">
-        <v>0.109305845003567</v>
+        <v>0.153796858930441</v>
       </c>
       <c r="J8" t="n">
-        <v>0.101451822065807</v>
+        <v>0.0662657436637781</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0115119960204843</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0513894570002253</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0287864453047351</v>
+        <v>0.0763920605438437</v>
       </c>
     </row>
     <row r="9">
@@ -796,40 +796,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.072713546603746</v>
+        <v>0.0642561125145039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0931986866077008</v>
+        <v>0.108459743189753</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0571096359244344</v>
+        <v>0.0929406412366898</v>
       </c>
       <c r="E9" t="n">
-        <v>0.135540540735228</v>
+        <v>0.0937198986013157</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0629629490300453</v>
+        <v>0.179785440821822</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0354191688945343</v>
+        <v>0.0362802110756362</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0686603638015399</v>
+        <v>0.11561309008346</v>
       </c>
       <c r="I9" t="n">
-        <v>0.153796858930441</v>
+        <v>0.109305845003567</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0662657436637781</v>
+        <v>0.101451822065807</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.0162418287509914</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.0513894570002253</v>
       </c>
       <c r="M9" t="n">
-        <v>0.060011024045149</v>
+        <v>0.0336585838067836</v>
       </c>
     </row>
     <row r="10">
@@ -837,40 +837,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0693715243203221</v>
+        <v>0.0586755469679772</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0803924221641962</v>
+        <v>0.0508348364846101</v>
       </c>
       <c r="D10" t="n">
-        <v>0.122203269537448</v>
+        <v>0.0745281183555955</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0816654315054271</v>
+        <v>0.0173737099141422</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0809428019468305</v>
+        <v>0.0582402101778452</v>
       </c>
       <c r="G10" t="n">
-        <v>0.104279108048216</v>
+        <v>0.016796623723425</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0630016374666119</v>
+        <v>0.0271474725083786</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0352832005889366</v>
+        <v>0.101491977235371</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0971892858927365</v>
+        <v>0.00723849083350555</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0337980065689796</v>
+        <v>0.0888050488605302</v>
       </c>
       <c r="L10" t="n">
-        <v>0.067307330824811</v>
+        <v>0.00324823699559777</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0590834096192297</v>
+        <v>0.0604669462528626</v>
       </c>
     </row>
     <row r="11">
@@ -878,40 +878,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0592001121723549</v>
+        <v>0.057558321170831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0724125055113728</v>
+        <v>0.0801840627892095</v>
       </c>
       <c r="D11" t="n">
-        <v>0.115312625838279</v>
+        <v>0.122203269537448</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0481070639006146</v>
+        <v>0.0816654315054271</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0736286813609621</v>
+        <v>0.0805494679032193</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0525722319503946</v>
+        <v>0.103570810726564</v>
       </c>
       <c r="H11" t="n">
-        <v>0.126476538647157</v>
+        <v>0.0624399832372243</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0429632286439221</v>
+        <v>0.0352832005889366</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0254627631298847</v>
+        <v>0.0971892858927365</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0200597059929599</v>
+        <v>0.0222019769070693</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1792332079261</v>
+        <v>0.067307330824811</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0265002368965387</v>
+        <v>0.044650549326319</v>
       </c>
     </row>
     <row r="12">
@@ -919,40 +919,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0550487850415384</v>
+        <v>0.0572368147526557</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0585420490166554</v>
+        <v>0.0722248283151471</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0825483426376479</v>
+        <v>0.115312625838279</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00886998504364916</v>
+        <v>0.0481070639006146</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0809471917976992</v>
+        <v>0.0732708896084046</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0879699851848713</v>
+        <v>0.0522151444015968</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0591581196332835</v>
+        <v>0.1253490110827</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0624189334074268</v>
+        <v>0.0429632286439221</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0321646371055381</v>
+        <v>0.0254627631298847</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0740337481581331</v>
+        <v>0.0220809209595436</v>
       </c>
       <c r="L12" t="n">
-        <v>0.147140113968247</v>
+        <v>0.1792332079261</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0220360120835181</v>
+        <v>0.044301714395928</v>
       </c>
     </row>
     <row r="13">
@@ -960,40 +960,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0527975765535907</v>
+        <v>0.0537848818463013</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0509669314968737</v>
+        <v>0.0583903209754398</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0745281183555955</v>
+        <v>0.0825483426376479</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0173737099141422</v>
+        <v>0.00886998504364915</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0585246050716457</v>
+        <v>0.0805538364220145</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0169114920295882</v>
+        <v>0.0873724646837998</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0273916668844979</v>
+        <v>0.0586307300378582</v>
       </c>
       <c r="I13" t="n">
-        <v>0.101491977235371</v>
+        <v>0.0624189334074268</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00723849083350555</v>
+        <v>0.0321646371055381</v>
       </c>
       <c r="K13" t="n">
-        <v>0.116914783703437</v>
+        <v>0.0720305043364639</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00324823699559777</v>
+        <v>0.147140113968247</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0449036992138123</v>
+        <v>0.0348474930102641</v>
       </c>
     </row>
     <row r="14">
@@ -1001,10 +1001,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0459103072134655</v>
+        <v>0.0422232710087401</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0564364263618467</v>
+        <v>0.0562901556287766</v>
       </c>
       <c r="D14" t="n">
         <v>0.0835104874088865</v>
@@ -1013,13 +1013,13 @@
         <v>0.0686528096602211</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0520635258189206</v>
+        <v>0.0518105279408824</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0458245292136388</v>
+        <v>0.0455132742373017</v>
       </c>
       <c r="H14" t="n">
-        <v>0.054956629808079</v>
+        <v>0.0544666961364192</v>
       </c>
       <c r="I14" t="n">
         <v>0.0210790538939028</v>
@@ -1028,13 +1028,13 @@
         <v>0.106977370952566</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0653726471273725</v>
+        <v>0.0713710060918431</v>
       </c>
       <c r="L14" t="n">
         <v>0.0272728069553479</v>
       </c>
       <c r="M14" t="n">
-        <v>0.020495569318962</v>
+        <v>0.0168739928222333</v>
       </c>
     </row>
     <row r="15">
@@ -1042,40 +1042,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0369992944680226</v>
+        <v>0.03237784651208</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0381065058362499</v>
+        <v>0.0384004350659205</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0149029273882893</v>
+        <v>0.0164075423371433</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0724745950942938</v>
+        <v>0.025721615720784</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0159071438937052</v>
+        <v>0.0161816759319739</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0690931385243868</v>
+        <v>0.0309047400402644</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0569470092460021</v>
+        <v>0.141965244003393</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0143926237380355</v>
+        <v>0.0379159478439894</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.015168269089377</v>
+        <v>0.0102750364125542</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0163265062683496</v>
+        <v>0.017666725646677</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0510119225589717</v>
+        <v>0.0349430244971041</v>
       </c>
     </row>
     <row r="16">
@@ -1083,40 +1083,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0342731218153039</v>
+        <v>0.0307832416724022</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0385002191174045</v>
+        <v>0.0380077422024991</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0164075423371433</v>
+        <v>0.0149029273882893</v>
       </c>
       <c r="E16" t="n">
-        <v>0.025721615720784</v>
+        <v>0.0724745950942938</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0162606932637132</v>
+        <v>0.0158298446023596</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0311160905592313</v>
+        <v>0.0686238356517658</v>
       </c>
       <c r="H16" t="n">
-        <v>0.143242236334054</v>
+        <v>0.0564393315112616</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0379159478439894</v>
+        <v>0.0143926237380355</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0102136830815011</v>
+        <v>0.0103056764569301</v>
       </c>
       <c r="L16" t="n">
-        <v>0.017666725646677</v>
+        <v>0.0163265062683496</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0357779709444891</v>
+        <v>0.0313868488559025</v>
       </c>
     </row>
     <row r="17">
@@ -1124,10 +1124,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0278566370716966</v>
+        <v>0.0301706774950994</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0344458407376418</v>
+        <v>0.0343565647380665</v>
       </c>
       <c r="D17" t="n">
         <v>0.0193533479392771</v>
@@ -1136,13 +1136,13 @@
         <v>0.013124041494362</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0121203428323304</v>
+        <v>0.0120614451497504</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00713107101573559</v>
+        <v>0.00708263448232543</v>
       </c>
       <c r="H17" t="n">
-        <v>0.107889685815408</v>
+        <v>0.106927858460086</v>
       </c>
       <c r="I17" t="n">
         <v>0.062726265373076</v>
@@ -1151,13 +1151,13 @@
         <v>0.0449719275317088</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00462597548825795</v>
+        <v>0.00402131265734683</v>
       </c>
       <c r="L17" t="n">
         <v>0.0218618298059188</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0297038384081097</v>
+        <v>0.0357986824309831</v>
       </c>
     </row>
     <row r="18">
@@ -1165,40 +1165,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0246975572466891</v>
+        <v>0.0251049844850095</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0234564866031641</v>
+        <v>0.0186225021070209</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0256621549921983</v>
+        <v>0.0367926462744212</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0199170383120501</v>
+        <v>0.0142632729744869</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0130654336051584</v>
+        <v>0.0148506264297652</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00584558698605849</v>
+        <v>0.0146639195984156</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0583692428094532</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0216228639186082</v>
+        <v>0.0238662091664546</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0349078935193678</v>
+        <v>0.0248797038335317</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0121262559994676</v>
+        <v>0.0720085225838968</v>
       </c>
       <c r="L18" t="n">
-        <v>0.11118491249438</v>
+        <v>0.00819054218052519</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0198431493933672</v>
+        <v>0.0162683179140122</v>
       </c>
     </row>
     <row r="19">
@@ -1206,40 +1206,40 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0241420174412797</v>
+        <v>0.0235787842155235</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0186708929313909</v>
+        <v>0.00895730105543215</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0367926462744212</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0142632729744869</v>
+        <v>0.0144369310087166</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0149231440651492</v>
+        <v>0.00852259136150892</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0147642028240041</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.00638709336146088</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0238662091664546</v>
+        <v>0.0186484850663226</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0248797038335317</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0839890686121304</v>
+        <v>0.0122452488814632</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00819054218052519</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0165834383917226</v>
+        <v>0.0458676479640837</v>
       </c>
     </row>
     <row r="20">
@@ -1247,40 +1247,40 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0205645588872287</v>
+        <v>0.0207722624908775</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00898057672374524</v>
+        <v>0.0233956925785975</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.0256621549921983</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0144369310087166</v>
+        <v>0.0199170383120501</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00856420833812627</v>
+        <v>0.0130019433415668</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.00580588187462047</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00644454593934401</v>
+        <v>0.0578488859836889</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0186484850663226</v>
+        <v>0.0216228639186082</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.0349078935193678</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0168519174444986</v>
+        <v>0.0141788630165831</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.11118491249438</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0488295335210468</v>
+        <v>0.0134559014256065</v>
       </c>
     </row>
     <row r="21">
@@ -1288,10 +1288,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0178301934289016</v>
+        <v>0.0155302049720978</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0209162061243834</v>
+        <v>0.0208619959448932</v>
       </c>
       <c r="D21" t="n">
         <v>0.00900891414022172</v>
@@ -1300,13 +1300,13 @@
         <v>0.0258632916342471</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00901891895231226</v>
+        <v>0.00897509235161162</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00830376437213512</v>
+        <v>0.00822973702035526</v>
       </c>
       <c r="I21" t="n">
         <v>0.0549102699999066</v>
@@ -1315,13 +1315,13 @@
         <v>0.0349533030221013</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.00193127081941513</v>
       </c>
       <c r="L21" t="n">
         <v>0.00219395787049115</v>
       </c>
       <c r="M21" t="n">
-        <v>0.018074048607627</v>
+        <v>0.0156171636205712</v>
       </c>
     </row>
     <row r="22">
@@ -1329,40 +1329,40 @@
         <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0155824829514267</v>
+        <v>0.0132455641731281</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0182006214385719</v>
+        <v>0.0132440842040099</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0149517547310086</v>
+        <v>0.00488739302561114</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0140957931087004</v>
+        <v>0.023149795841229</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0191939905574722</v>
+        <v>0.0123706687868736</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0234024154074365</v>
+        <v>0.00586437249572782</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0290440326944237</v>
+        <v>0.00638709336146088</v>
       </c>
       <c r="I22" t="n">
-        <v>0.013429861807048</v>
+        <v>0.0191382624585679</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0367901082561839</v>
+        <v>0.00528424901026303</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0142225611253623</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0123203821207344</v>
+        <v>0.0191465000823466</v>
       </c>
     </row>
     <row r="23">
@@ -1370,28 +1370,28 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0123894148742132</v>
+        <v>0.0125090413874315</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0132784991364919</v>
+        <v>0.0116675881134751</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00488739302561114</v>
+        <v>0.00488611224100887</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0231497958412291</v>
+        <v>0.0248502586762232</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0124310764506705</v>
+        <v>0.00482985682824736</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00590447761127879</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00644454593934401</v>
+        <v>0.0205009254768451</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0191382624585679</v>
+        <v>0.00986417932339545</v>
       </c>
       <c r="J23" t="n">
         <v>0.00528424901026303</v>
@@ -1400,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.00110417035291731</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0189580251645484</v>
+        <v>0.0189359114102982</v>
       </c>
     </row>
     <row r="24">
@@ -1411,40 +1411,40 @@
         <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0104210260460402</v>
+        <v>0.0122029485306771</v>
       </c>
       <c r="C24" t="n">
-        <v>0.011697906499478</v>
+        <v>0.0181534494538846</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00488611224100887</v>
+        <v>0.0149517547310086</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0248502586762232</v>
+        <v>0.0140957931087004</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00485344167822552</v>
+        <v>0.0191007191394162</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0232434586570045</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0206853334619767</v>
+        <v>0.0287851076179138</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00986417932339544</v>
+        <v>0.013429861807048</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00528424901026303</v>
+        <v>0.0367901082561839</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00110417035291731</v>
+        <v>0.0142225611253623</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0110822197381126</v>
+        <v>0.00992355888508054</v>
       </c>
     </row>
     <row r="25">
@@ -1452,10 +1452,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00983764217474474</v>
+        <v>0.0100652178192756</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00961164350333164</v>
+        <v>0.0104367920677232</v>
       </c>
       <c r="D25" t="n">
         <v>0.00554998814841137</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0195671348953072</v>
+        <v>0.024331457528644</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00924656396831178</v>
+        <v>0.00916413163847182</v>
       </c>
       <c r="I25" t="n">
         <v>0.0215447494623669</v>
@@ -1479,13 +1479,13 @@
         <v>0.00704054444917787</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00321210433670374</v>
+        <v>0.00205016696785656</v>
       </c>
       <c r="L25" t="n">
         <v>0.0261998566749145</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00901184191965678</v>
+        <v>0.0113966443782048</v>
       </c>
     </row>
     <row r="26">
@@ -1493,10 +1493,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00404669427899075</v>
+        <v>0.0029450332785087</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00436555566637075</v>
+        <v>0.00435424111176936</v>
       </c>
       <c r="D26" t="n">
         <v>0.00471914826871048</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0121353111240739</v>
+        <v>0.0120271258595023</v>
       </c>
       <c r="I26" t="n">
         <v>0.0067008520433322</v>
@@ -1526,7 +1526,7 @@
         <v>0.00239656785193081</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00467043999086654</v>
+        <v>0.00250314236338811</v>
       </c>
     </row>
     <row r="27">
@@ -1534,10 +1534,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00243009086252888</v>
+        <v>0.00238500831738477</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00262541639566496</v>
+        <v>0.00261861189712449</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00654660393723952</v>
+        <v>0.00648824152100193</v>
       </c>
       <c r="I27" t="n">
         <v>0.00434449688176914</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0051488501900444</v>
+        <v>0.00318655503364763</v>
       </c>
     </row>
     <row r="28">
@@ -1575,10 +1575,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00182534753925522</v>
+        <v>0.00163326924055718</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00305695237276212</v>
+        <v>0.00304902942842725</v>
       </c>
       <c r="D28" t="n">
         <v>0.00492243385315486</v>
@@ -1587,7 +1587,7 @@
         <v>0.006036667099986</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00479095732666219</v>
+        <v>0.00476767611359889</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.00211107894769403</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>

--- a/xlsx/country_comparison/field_concerns_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_concerns_manual_positive.xlsx
@@ -536,7 +536,7 @@
         <v>0.151729045616648</v>
       </c>
       <c r="K2" t="n">
-        <v>0.220671091728308</v>
+        <v>0.220671091728309</v>
       </c>
       <c r="L2" t="n">
         <v>0.184011212415043</v>
@@ -571,7 +571,7 @@
         <v>0.0931670600736179</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0927954723068872</v>
+        <v>0.0927954723068871</v>
       </c>
       <c r="J3" t="n">
         <v>0.143585986024537</v>
@@ -580,7 +580,7 @@
         <v>0.277171341690393</v>
       </c>
       <c r="L3" t="n">
-        <v>0.287084405330801</v>
+        <v>0.2870844053308</v>
       </c>
       <c r="M3" t="n">
         <v>0.104990282260483</v>
@@ -621,7 +621,7 @@
         <v>0.0757219102353771</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0890652702036911</v>
+        <v>0.089065270203691</v>
       </c>
       <c r="M4" t="n">
         <v>0.110216701989078</v>
@@ -644,7 +644,7 @@
         <v>0.114179690094334</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0493983462506671</v>
+        <v>0.0493983462506672</v>
       </c>
       <c r="G5" t="n">
         <v>0.00196393994566121</v>
@@ -732,7 +732,7 @@
         <v>0.00677026430681622</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0967568001847888</v>
+        <v>0.0967568001847889</v>
       </c>
       <c r="I7" t="n">
         <v>0.0980261265451869</v>
@@ -823,7 +823,7 @@
         <v>0.101451822065807</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0162418287509914</v>
+        <v>0.0162418287509915</v>
       </c>
       <c r="L9" t="n">
         <v>0.0513894570002253</v>
@@ -993,7 +993,7 @@
         <v>0.147140113968247</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0348474930102641</v>
+        <v>0.0348474930102642</v>
       </c>
     </row>
     <row r="14">
@@ -1157,7 +1157,7 @@
         <v>0.0218618298059188</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0357986824309831</v>
+        <v>0.035798682430983</v>
       </c>
     </row>
     <row r="18">
@@ -1391,7 +1391,7 @@
         <v>0.0205009254768451</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00986417932339545</v>
+        <v>0.00986417932339544</v>
       </c>
       <c r="J23" t="n">
         <v>0.00528424901026303</v>

--- a/xlsx/country_comparison/field_concerns_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_concerns_manual_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -56,12 +59,12 @@
     <t xml:space="preserve">Money; own income; cost of living; inflation</t>
   </si>
   <si>
+    <t xml:space="preserve">Health; healthcare system</t>
+  </si>
+  <si>
     <t xml:space="preserve">Other topic; unclear; vague</t>
   </si>
   <si>
-    <t xml:space="preserve">Health; healthcare system</t>
-  </si>
-  <si>
     <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
   </si>
   <si>
@@ -77,37 +80,37 @@
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International issues</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
-    <t xml:space="preserve">International issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work; (un)employment; business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family; children; childcare</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
   <si>
+    <t xml:space="preserve">Own country referred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
-    <t xml:space="preserve">Own country referred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Old age; retirement; ageing society</t>
   </si>
   <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
   </si>
   <si>
     <t xml:space="preserve">Poverty; inequality</t>
@@ -503,857 +506,920 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.304432416539754</v>
+        <v>0.302524617682632</v>
       </c>
       <c r="C2" t="n">
         <v>0.244717520108542</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2485128468406</v>
+        <v>0.239115169716108</v>
       </c>
       <c r="E2" t="n">
-        <v>0.18131793588152</v>
+        <v>0.189624776815562</v>
       </c>
       <c r="F2" t="n">
-        <v>0.222458815536704</v>
+        <v>0.2227396633646</v>
       </c>
       <c r="G2" t="n">
-        <v>0.285778183004776</v>
+        <v>0.256209378813015</v>
       </c>
       <c r="H2" t="n">
-        <v>0.201207187142352</v>
+        <v>0.202657915590961</v>
       </c>
       <c r="I2" t="n">
-        <v>0.355955905285415</v>
+        <v>0.357213697560094</v>
       </c>
       <c r="J2" t="n">
-        <v>0.151729045616648</v>
+        <v>0.144932733465468</v>
       </c>
       <c r="K2" t="n">
-        <v>0.220671091728309</v>
+        <v>0.215488877753942</v>
       </c>
       <c r="L2" t="n">
-        <v>0.184011212415043</v>
+        <v>0.262133442307407</v>
       </c>
       <c r="M2" t="n">
-        <v>0.411143504267138</v>
+        <v>0.197725699566133</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.411643128446613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.130023815709387</v>
+        <v>0.132533115062297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0930577292263979</v>
+        <v>0.151133459473737</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0936072955585737</v>
+        <v>0.100142062359615</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0857242781719562</v>
+        <v>0.0473291615360331</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0858659465786105</v>
+        <v>0.192808610326278</v>
       </c>
       <c r="G3" t="n">
-        <v>0.110377293727914</v>
+        <v>0.281171144958579</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0931670600736179</v>
+        <v>0.201575757062436</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0927954723068871</v>
+        <v>0.200006806256536</v>
       </c>
       <c r="J3" t="n">
-        <v>0.143585986024537</v>
+        <v>0.0720789743429644</v>
       </c>
       <c r="K3" t="n">
-        <v>0.277171341690393</v>
+        <v>0.0706332818916945</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2870844053308</v>
+        <v>0.318578708551378</v>
       </c>
       <c r="M3" t="n">
-        <v>0.104990282260483</v>
+        <v>0.0757258461383093</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.108920147043922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122438757950822</v>
+        <v>0.132387159040968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.151133459473737</v>
+        <v>0.0930577292263979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.101447981598101</v>
+        <v>0.106667569616489</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0448387630794269</v>
+        <v>0.0804836626527972</v>
       </c>
       <c r="F4" t="n">
-        <v>0.192971825848193</v>
+        <v>0.0853318000869595</v>
       </c>
       <c r="G4" t="n">
-        <v>0.265239801487141</v>
+        <v>0.130273899117649</v>
       </c>
       <c r="H4" t="n">
-        <v>0.199326973517994</v>
+        <v>0.0941330053068227</v>
       </c>
       <c r="I4" t="n">
-        <v>0.203481771372987</v>
+        <v>0.0958147608246616</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0755226653052408</v>
+        <v>0.12557871837747</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0757219102353771</v>
+        <v>0.278503989755741</v>
       </c>
       <c r="L4" t="n">
-        <v>0.089065270203691</v>
+        <v>0.133228012631125</v>
       </c>
       <c r="M4" t="n">
-        <v>0.110216701989078</v>
+        <v>0.268796306059297</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.105744487855875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113117130809889</v>
+        <v>0.104924407413624</v>
       </c>
       <c r="C5" t="n">
         <v>0.0636614491480464</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0706336835345524</v>
+        <v>0.0747963794376815</v>
       </c>
       <c r="E5" t="n">
-        <v>0.114179690094334</v>
+        <v>0.111814929215808</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0493983462506672</v>
+        <v>0.0512797563905644</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00196393994566121</v>
+        <v>0.00192307692307692</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0293196608605389</v>
+        <v>0.0325107035567697</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0651968508366937</v>
+        <v>0.0647631071432526</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0590216027029047</v>
+        <v>0.065455518970099</v>
       </c>
       <c r="K5" t="n">
-        <v>0.112878680613525</v>
+        <v>0.11569761057924</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.176936085664981</v>
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.173807024690343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0922093474217277</v>
+        <v>0.0931821195958323</v>
       </c>
       <c r="C6" t="n">
         <v>0.154253994114889</v>
       </c>
       <c r="D6" t="n">
-        <v>0.101050316716917</v>
+        <v>0.104233789654621</v>
       </c>
       <c r="E6" t="n">
-        <v>0.203945354956949</v>
+        <v>0.201031034282909</v>
       </c>
       <c r="F6" t="n">
-        <v>0.310333617607928</v>
+        <v>0.321859012514832</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0956835101646698</v>
+        <v>0.100482723267364</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0643275474833623</v>
+        <v>0.0556062016932646</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0729908181359556</v>
+        <v>0.0777696565819544</v>
       </c>
       <c r="J6" t="n">
-        <v>0.257701090636818</v>
+        <v>0.257858847917097</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0121345524570602</v>
+        <v>0.0127141700060078</v>
       </c>
       <c r="L6" t="n">
-        <v>0.073987030062606</v>
+        <v>0.159665601668927</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0539650499495346</v>
+        <v>0.0735111654446202</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0549522867543656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0752480436553213</v>
+        <v>0.0725737082009626</v>
       </c>
       <c r="C7" t="n">
         <v>0.0914100349765703</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17979998474085</v>
+        <v>0.174323490243621</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0574339180531485</v>
+        <v>0.0585323368147957</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0924167272317507</v>
+        <v>0.0915997213759155</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00677026430681622</v>
+        <v>0.00437671164098144</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0967568001847889</v>
+        <v>0.091870191171446</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0980261265451869</v>
+        <v>0.0974645934973972</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0429571273282542</v>
+        <v>0.0506195767866335</v>
       </c>
       <c r="K7" t="n">
-        <v>0.020030908990007</v>
+        <v>0.0193721491622891</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00817441701783805</v>
+        <v>0.0277706088584636</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0827003343431248</v>
+        <v>0.0062879920971785</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.081246440353319</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0703256182582441</v>
+        <v>0.067349072528278</v>
       </c>
       <c r="C8" t="n">
         <v>0.0929571362280953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0571096359244344</v>
+        <v>0.0544117739267413</v>
       </c>
       <c r="E8" t="n">
-        <v>0.135540540735228</v>
+        <v>0.139489370285602</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0626569864151614</v>
+        <v>0.0678845819201463</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0351785904801931</v>
+        <v>0.0408477862307504</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0680482625090797</v>
+        <v>0.0722607214700208</v>
       </c>
       <c r="I8" t="n">
-        <v>0.153796858930441</v>
+        <v>0.150141983804516</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0662657436637781</v>
+        <v>0.0785988519801949</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0278447352915269</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0763920605438437</v>
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0746833811098651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0642561125145039</v>
+        <v>0.0599859767609912</v>
       </c>
       <c r="C9" t="n">
         <v>0.108459743189753</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0929406412366898</v>
+        <v>0.0930175762740869</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0937198986013157</v>
+        <v>0.0888645857260702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.179785440821822</v>
+        <v>0.173994861393677</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0362802110756362</v>
+        <v>0.041061598857694</v>
       </c>
       <c r="H9" t="n">
-        <v>0.11561309008346</v>
+        <v>0.112072133830288</v>
       </c>
       <c r="I9" t="n">
-        <v>0.109305845003567</v>
+        <v>0.11373741292933</v>
       </c>
       <c r="J9" t="n">
-        <v>0.101451822065807</v>
+        <v>0.121161136266963</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0162418287509915</v>
+        <v>0.0162233026554549</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0513894570002253</v>
+        <v>0.00211864406779661</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0336585838067836</v>
+        <v>0.0518847513843085</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0344165574251404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0586755469679772</v>
+        <v>0.0595026199001304</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0508348364846101</v>
+        <v>0.0583903209754398</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0745281183555955</v>
+        <v>0.0866070886456633</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0173737099141422</v>
+        <v>0.00716611578614893</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0582402101778452</v>
+        <v>0.0762359274640915</v>
       </c>
       <c r="G10" t="n">
-        <v>0.016796623723425</v>
+        <v>0.101947109490076</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0271474725083786</v>
+        <v>0.0552029333704981</v>
       </c>
       <c r="I10" t="n">
-        <v>0.101491977235371</v>
+        <v>0.0651313963384884</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00723849083350555</v>
+        <v>0.0563928045129919</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0888050488605302</v>
+        <v>0.0695153925346582</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00324823699559777</v>
+        <v>0.119899242845121</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0604669462528626</v>
+        <v>0.156802924612782</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.03338365176733</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.057558321170831</v>
+        <v>0.0562234036883658</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0801840627892095</v>
+        <v>0.0722248283151471</v>
       </c>
       <c r="D11" t="n">
-        <v>0.122203269537448</v>
+        <v>0.0962402251408443</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0816654315054271</v>
+        <v>0.0441568314835197</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0805494679032193</v>
+        <v>0.0708240251337471</v>
       </c>
       <c r="G11" t="n">
-        <v>0.103570810726564</v>
+        <v>0.0488175860783358</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0624399832372243</v>
+        <v>0.134413377800434</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0352832005889366</v>
+        <v>0.0445433853770527</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0971892858927365</v>
+        <v>0.0195155732912895</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0222019769070693</v>
+        <v>0.0224186357946024</v>
       </c>
       <c r="L11" t="n">
-        <v>0.067307330824811</v>
+        <v>0.039088993776491</v>
       </c>
       <c r="M11" t="n">
-        <v>0.044650549326319</v>
+        <v>0.174861720553464</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0442172826674758</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0572368147526557</v>
+        <v>0.0557197130777883</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0722248283151471</v>
+        <v>0.0801840627892095</v>
       </c>
       <c r="D12" t="n">
-        <v>0.115312625838279</v>
+        <v>0.137260549630366</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0481070639006146</v>
+        <v>0.0767125012549041</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0732708896084046</v>
+        <v>0.0846232421309023</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0522151444015968</v>
+        <v>0.107496183660972</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1253490110827</v>
+        <v>0.0685051139855344</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0429632286439221</v>
+        <v>0.0337448327227748</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0254627631298847</v>
+        <v>0.104982278956509</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0220809209595436</v>
+        <v>0.0230041961588673</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1792332079261</v>
+        <v>0.0419080771242361</v>
       </c>
       <c r="M12" t="n">
-        <v>0.044301714395928</v>
+        <v>0.0687731190415157</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0458208329565306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0537848818463013</v>
+        <v>0.0554854359584678</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0583903209754398</v>
+        <v>0.0508348364846101</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0825483426376479</v>
+        <v>0.0817923717571892</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00886998504364915</v>
+        <v>0.0196265406128882</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0805538364220145</v>
+        <v>0.0610289124095342</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0873724646837998</v>
+        <v>0.0179527841980881</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0586307300378582</v>
+        <v>0.0301068770430027</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0624189334074268</v>
+        <v>0.104101778131366</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0321646371055381</v>
+        <v>0.00627201407295562</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0720305043364639</v>
+        <v>0.093281609459125</v>
       </c>
       <c r="L13" t="n">
-        <v>0.147140113968247</v>
+        <v>0.0104283108223233</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0348474930102642</v>
+        <v>0.00247463011367962</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.062071513765286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0422232710087401</v>
+        <v>0.0453419258646028</v>
       </c>
       <c r="C14" t="n">
         <v>0.0562901556287766</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0835104874088865</v>
+        <v>0.0912247211041893</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0686528096602211</v>
+        <v>0.0724419479430868</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0518105279408824</v>
+        <v>0.0511583197661633</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0455132742373017</v>
+        <v>0.0383985947966666</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0544666961364192</v>
+        <v>0.05535958592494</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0210790538939028</v>
+        <v>0.029034663195251</v>
       </c>
       <c r="J14" t="n">
-        <v>0.106977370952566</v>
+        <v>0.10428326430199</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0713710060918431</v>
+        <v>0.0721162839971537</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0272728069553479</v>
+        <v>0.0456161957866956</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0168739928222333</v>
+        <v>0.0259901410662939</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0177643700901418</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03237784651208</v>
+        <v>0.0388644425745637</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0384004350659205</v>
+        <v>0.0380077422024991</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0164075423371433</v>
+        <v>0.0188669439504463</v>
       </c>
       <c r="E15" t="n">
-        <v>0.025721615720784</v>
+        <v>0.0719757226840239</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0161816759319739</v>
+        <v>0.0138530875394878</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0309047400402644</v>
+        <v>0.0683023639780505</v>
       </c>
       <c r="H15" t="n">
-        <v>0.141965244003393</v>
+        <v>0.0553161132119363</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0379159478439894</v>
+        <v>0.0160882445791234</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0102750364125542</v>
+        <v>0.0116581673014935</v>
       </c>
       <c r="L15" t="n">
-        <v>0.017666725646677</v>
+        <v>0.165658482609538</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0349430244971041</v>
+        <v>0.013642561799418</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0339572636666669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0307832416724022</v>
+        <v>0.0308307752174104</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0380077422024991</v>
+        <v>0.0343565647380665</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0149029273882893</v>
+        <v>0.0166476118058536</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0724745950942938</v>
+        <v>0.0132389506923128</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0158298446023596</v>
+        <v>0.00944694873618174</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0686238356517658</v>
+        <v>0.00424037454151345</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0564393315112616</v>
+        <v>0.118152063424842</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0143926237380355</v>
+        <v>0.0645398556516345</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.0373255661533261</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0103056764569301</v>
+        <v>0.00447932573070164</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0163265062683496</v>
+        <v>0.0144984311388211</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0313868488559025</v>
+        <v>0.0326490599051506</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.035745347841326</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0301706774950994</v>
+        <v>0.0305717547088596</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0343565647380665</v>
+        <v>0.0384004350659205</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0193533479392771</v>
+        <v>0.0147492634840696</v>
       </c>
       <c r="E17" t="n">
-        <v>0.013124041494362</v>
+        <v>0.027489466338119</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0120614451497504</v>
+        <v>0.0160593463517702</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00708263448232543</v>
+        <v>0.0314691535750048</v>
       </c>
       <c r="H17" t="n">
-        <v>0.106927858460086</v>
+        <v>0.136718302354562</v>
       </c>
       <c r="I17" t="n">
-        <v>0.062726265373076</v>
+        <v>0.0313574428010175</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0449719275317088</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00402131265734683</v>
+        <v>0.0104326615323744</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0218618298059188</v>
+        <v>0.00830966675452667</v>
       </c>
       <c r="M17" t="n">
-        <v>0.035798682430983</v>
+        <v>0.0175438596491228</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0345741428906174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0251049844850095</v>
+        <v>0.0250407734198073</v>
       </c>
       <c r="C18" t="n">
         <v>0.0186225021070209</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0367926462744212</v>
+        <v>0.0348992362819765</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0142632729744869</v>
+        <v>0.0127358308421263</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0148506264297652</v>
+        <v>0.0183427514123012</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0146639195984156</v>
+        <v>0.0093005103585607</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0238662091664546</v>
+        <v>0.0251753434622658</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0248797038335317</v>
+        <v>0.0276746455013728</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0720085225838968</v>
+        <v>0.0739578741883794</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00819054218052519</v>
+        <v>0.0279671834712919</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0162683179140122</v>
+        <v>0.00617706517918325</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0153320395320193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0235787842155235</v>
+        <v>0.0233448163121791</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00895730105543215</v>
+        <v>0.0233956925785975</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.0219675135975055</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0144369310087166</v>
+        <v>0.0198400088072347</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00852259136150892</v>
+        <v>0.0121591134668396</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.0044419874585665</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00638709336146088</v>
+        <v>0.0610540047534814</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0186484850663226</v>
+        <v>0.0282518776254147</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.0272454994264313</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0122452488814632</v>
+        <v>0.0141893029667258</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.0543196690030424</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0458676479640837</v>
+        <v>0.119231091253074</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0136438475687263</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0207722624908775</v>
+        <v>0.0226690510576355</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0233956925785975</v>
+        <v>0.00895730105543215</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0256621549921983</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0199170383120501</v>
+        <v>0.0161443037257131</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0130019433415668</v>
+        <v>0.00830199376216641</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00580588187462047</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0578488859836889</v>
+        <v>0.00594213582483793</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0216228639186082</v>
+        <v>0.0175967886526873</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0349078935193678</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0141788630165831</v>
+        <v>0.0120876816529105</v>
       </c>
       <c r="L20" t="n">
-        <v>0.11118491249438</v>
+        <v>0.0189964162313996</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0134559014256065</v>
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0464755317871445</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0155302049720978</v>
+        <v>0.0156877795948234</v>
       </c>
       <c r="C21" t="n">
         <v>0.0208619959448932</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00900891414022172</v>
+        <v>0.0081453932497154</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0258632916342471</v>
+        <v>0.0238093491976783</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00897509235161162</v>
+        <v>0.0106950525248212</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00822973702035526</v>
+        <v>0.00630184003999868</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0549102699999066</v>
+        <v>0.0616597306805937</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0349533030221013</v>
+        <v>0.0389238229333827</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00193127081941513</v>
+        <v>0.00169752423933927</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00219395787049115</v>
+        <v>0.0206349969880311</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0156171636205712</v>
+        <v>0.00324257839634198</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0162091002755225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0132455641731281</v>
+        <v>0.0123542922738686</v>
       </c>
       <c r="C22" t="n">
         <v>0.0132440842040099</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00488739302561114</v>
+        <v>0.00461983071209413</v>
       </c>
       <c r="E22" t="n">
-        <v>0.023149795841229</v>
+        <v>0.0234888676925583</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0123706687868736</v>
+        <v>0.0141433183345105</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00586437249572782</v>
+        <v>0.0044086462947291</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00638709336146088</v>
+        <v>0.00594213582483793</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0191382624585679</v>
+        <v>0.0209804136729252</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00528424901026303</v>
+        <v>0.00217391304347826</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1362,147 +1428,159 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0191465000823466</v>
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0206186062617936</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0125090413874315</v>
+        <v>0.0121353717118567</v>
       </c>
       <c r="C23" t="n">
         <v>0.0116675881134751</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00488611224100887</v>
+        <v>0.00262346915050827</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0248502586762232</v>
+        <v>0.0261138160922602</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00482985682824736</v>
+        <v>0.00457029849250544</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0205009254768451</v>
+        <v>0.024205157932676</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00986417932339544</v>
+        <v>0.0101209665931416</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00528424901026303</v>
+        <v>0.00217391304347826</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00110417035291731</v>
+        <v>0.00211864406779661</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0189359114102982</v>
+        <v>0.00157888227757434</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0186476854853891</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0122029485306771</v>
+        <v>0.0118588184703199</v>
       </c>
       <c r="C24" t="n">
         <v>0.0181534494538846</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0149517547310086</v>
+        <v>0.0143531005168422</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0140957931087004</v>
+        <v>0.014032011624946</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0191007191394162</v>
+        <v>0.0158697732813422</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0232434586570045</v>
+        <v>0.0255818697196312</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0287851076179138</v>
+        <v>0.0255029443834266</v>
       </c>
       <c r="I24" t="n">
-        <v>0.013429861807048</v>
+        <v>0.0127641174425321</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0367901082561839</v>
+        <v>0.0260496310622608</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0142225611253623</v>
+        <v>0.00211864406779661</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00992355888508054</v>
+        <v>0.0145714876622477</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.00826635080345597</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0100652178192756</v>
+        <v>0.0118260392039158</v>
       </c>
       <c r="C25" t="n">
         <v>0.0104367920677232</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00554998814841137</v>
+        <v>0.00407678162333585</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.024331457528644</v>
+        <v>0.0257639833545341</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00916413163847182</v>
+        <v>0.00594404911932832</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0215447494623669</v>
+        <v>0.019038356511855</v>
       </c>
       <c r="J25" t="n">
-        <v>0.00704054444917787</v>
+        <v>0.00943403540043108</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00205016696785656</v>
+        <v>0.00182248133706443</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0261998566749145</v>
+        <v>0.034231927633594</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0113966443782048</v>
+        <v>0.0287109932216041</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0105262223342483</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0029450332785087</v>
+        <v>0.00273230247393873</v>
       </c>
       <c r="C26" t="n">
         <v>0.00435424111176936</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00471914826871048</v>
+        <v>0.00500594744862769</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0038846240168766</v>
+        <v>0.00395867887098061</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1511,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0120271258595023</v>
+        <v>0.0139631527235003</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0067008520433322</v>
+        <v>0.00564893595979522</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1523,18 +1601,21 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00239656785193081</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00250314236338811</v>
+        <v>0.00109649122807018</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.00239071957649954</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00238500831738477</v>
+        <v>0.0022669961546095</v>
       </c>
       <c r="C27" t="n">
         <v>0.00261861189712449</v>
@@ -1543,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0046388374940832</v>
+        <v>0.00569046691090777</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1552,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00648824152100193</v>
+        <v>0.00665873489714024</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00434449688176914</v>
+        <v>0.00327917939140522</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1567,27 +1648,30 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00318655503364763</v>
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00426195414396756</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00163326924055718</v>
+        <v>0.00151344322226091</v>
       </c>
       <c r="C28" t="n">
         <v>0.00304902942842725</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00492243385315486</v>
+        <v>0.0049820909975361</v>
       </c>
       <c r="E28" t="n">
-        <v>0.006036667099986</v>
+        <v>0.00595401029481164</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00476767611359889</v>
+        <v>0.00371315239695175</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1602,12 +1686,15 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00211107894769403</v>
+        <v>0.00201191013140548</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/xlsx/country_comparison/field_concerns_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_concerns_manual_positive.xlsx
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.302524617682632</v>
+        <v>0.302746126179638</v>
       </c>
       <c r="C2" t="n">
         <v>0.244717520108542</v>
@@ -545,7 +545,7 @@
         <v>0.215488877753942</v>
       </c>
       <c r="L2" t="n">
-        <v>0.262133442307407</v>
+        <v>0.262627754820261</v>
       </c>
       <c r="M2" t="n">
         <v>0.197725699566133</v>
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.132533115062297</v>
+        <v>0.132698097701624</v>
       </c>
       <c r="C3" t="n">
         <v>0.151133459473737</v>
@@ -589,7 +589,7 @@
         <v>0.0706332818916945</v>
       </c>
       <c r="L3" t="n">
-        <v>0.318578708551378</v>
+        <v>0.319043636483185</v>
       </c>
       <c r="M3" t="n">
         <v>0.0757258461383093</v>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.132387159040968</v>
+        <v>0.132544745595368</v>
       </c>
       <c r="C4" t="n">
         <v>0.0930577292263979</v>
@@ -633,7 +633,7 @@
         <v>0.278503989755741</v>
       </c>
       <c r="L4" t="n">
-        <v>0.133228012631125</v>
+        <v>0.133476479750945</v>
       </c>
       <c r="M4" t="n">
         <v>0.268796306059297</v>
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.104924407413624</v>
+        <v>0.104954291559634</v>
       </c>
       <c r="C5" t="n">
         <v>0.0636614491480464</v>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0931821195958323</v>
+        <v>0.0932028863952332</v>
       </c>
       <c r="C6" t="n">
         <v>0.154253994114889</v>
@@ -721,7 +721,7 @@
         <v>0.0127141700060078</v>
       </c>
       <c r="L6" t="n">
-        <v>0.159665601668927</v>
+        <v>0.159964860177757</v>
       </c>
       <c r="M6" t="n">
         <v>0.0735111654446202</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0725737082009626</v>
+        <v>0.0726146628717923</v>
       </c>
       <c r="C7" t="n">
         <v>0.0914100349765703</v>
@@ -765,7 +765,7 @@
         <v>0.0193721491622891</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0277706088584636</v>
+        <v>0.027851264805723</v>
       </c>
       <c r="M7" t="n">
         <v>0.0062879920971785</v>
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.067349072528278</v>
+        <v>0.0673579311285264</v>
       </c>
       <c r="C8" t="n">
         <v>0.0929571362280953</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0278447352915269</v>
+        <v>0.0278774895750753</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0599859767609912</v>
+        <v>0.0600150681857347</v>
       </c>
       <c r="C9" t="n">
         <v>0.108459743189753</v>
@@ -853,7 +853,7 @@
         <v>0.0162233026554549</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00211864406779661</v>
+        <v>0.00213675213675214</v>
       </c>
       <c r="M9" t="n">
         <v>0.0518847513843085</v>
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0595026199001304</v>
+        <v>0.05966206762283</v>
       </c>
       <c r="C10" t="n">
         <v>0.0583903209754398</v>
@@ -897,7 +897,7 @@
         <v>0.0695153925346582</v>
       </c>
       <c r="L10" t="n">
-        <v>0.119899242845121</v>
+        <v>0.120181913122885</v>
       </c>
       <c r="M10" t="n">
         <v>0.156802924612782</v>
@@ -911,7 +911,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0562234036883658</v>
+        <v>0.0562425049963977</v>
       </c>
       <c r="C11" t="n">
         <v>0.0722248283151471</v>
@@ -941,7 +941,7 @@
         <v>0.0224186357946024</v>
       </c>
       <c r="L11" t="n">
-        <v>0.039088993776491</v>
+        <v>0.039139156890713</v>
       </c>
       <c r="M11" t="n">
         <v>0.174861720553464</v>
@@ -955,7 +955,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0557197130777883</v>
+        <v>0.0557349159970431</v>
       </c>
       <c r="C12" t="n">
         <v>0.0801840627892095</v>
@@ -985,7 +985,7 @@
         <v>0.0230041961588673</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0419080771242361</v>
+        <v>0.0419559421857597</v>
       </c>
       <c r="M12" t="n">
         <v>0.0687731190415157</v>
@@ -999,7 +999,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0554854359584678</v>
+        <v>0.0555018613257839</v>
       </c>
       <c r="C13" t="n">
         <v>0.0508348364846101</v>
@@ -1029,7 +1029,7 @@
         <v>0.093281609459125</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0104283108223233</v>
+        <v>0.0104545013488199</v>
       </c>
       <c r="M13" t="n">
         <v>0.00247463011367962</v>
@@ -1043,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0453419258646028</v>
+        <v>0.0445376023577932</v>
       </c>
       <c r="C14" t="n">
         <v>0.0562901556287766</v>
@@ -1073,7 +1073,7 @@
         <v>0.0721162839971537</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0456161957866956</v>
+        <v>0.0436687234979021</v>
       </c>
       <c r="M14" t="n">
         <v>0.0259901410662939</v>
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0388644425745637</v>
+        <v>0.0389955973547897</v>
       </c>
       <c r="C15" t="n">
         <v>0.0380077422024991</v>
@@ -1117,7 +1117,7 @@
         <v>0.0116581673014935</v>
       </c>
       <c r="L15" t="n">
-        <v>0.165658482609538</v>
+        <v>0.166095380878192</v>
       </c>
       <c r="M15" t="n">
         <v>0.013642561799418</v>
@@ -1131,7 +1131,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0308307752174104</v>
+        <v>0.03086973740677</v>
       </c>
       <c r="C16" t="n">
         <v>0.0343565647380665</v>
@@ -1161,7 +1161,7 @@
         <v>0.00447932573070164</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0144984311388211</v>
+        <v>0.0145849886052593</v>
       </c>
       <c r="M16" t="n">
         <v>0.0326490599051506</v>
@@ -1175,7 +1175,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0305717547088596</v>
+        <v>0.0305826708099672</v>
       </c>
       <c r="C17" t="n">
         <v>0.0384004350659205</v>
@@ -1205,7 +1205,7 @@
         <v>0.0104326615323744</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00830966675452667</v>
+        <v>0.0083177492120678</v>
       </c>
       <c r="M17" t="n">
         <v>0.0175438596491228</v>
@@ -1219,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0250407734198073</v>
+        <v>0.0250468012270096</v>
       </c>
       <c r="C18" t="n">
         <v>0.0186225021070209</v>
@@ -1249,7 +1249,7 @@
         <v>0.0739578741883794</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0279671834712919</v>
+        <v>0.0279987225267749</v>
       </c>
       <c r="M18" t="n">
         <v>0.00617706517918325</v>
@@ -1263,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0233448163121791</v>
+        <v>0.0234442593019811</v>
       </c>
       <c r="C19" t="n">
         <v>0.0233956925785975</v>
@@ -1293,7 +1293,7 @@
         <v>0.0141893029667258</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0543196690030424</v>
+        <v>0.0545929608721924</v>
       </c>
       <c r="M19" t="n">
         <v>0.119231091253074</v>
@@ -1307,7 +1307,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0226690510576355</v>
+        <v>0.0226687091089593</v>
       </c>
       <c r="C20" t="n">
         <v>0.00895730105543215</v>
@@ -1337,7 +1337,7 @@
         <v>0.0120876816529105</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0189964162313996</v>
+        <v>0.0190099476213608</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0156877795948234</v>
+        <v>0.0156919304575416</v>
       </c>
       <c r="C21" t="n">
         <v>0.0208619959448932</v>
@@ -1381,7 +1381,7 @@
         <v>0.00169752423933927</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0206349969880311</v>
+        <v>0.0206581095747131</v>
       </c>
       <c r="M21" t="n">
         <v>0.00324257839634198</v>
@@ -1395,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0123542922738686</v>
+        <v>0.0123578109735045</v>
       </c>
       <c r="C22" t="n">
         <v>0.0132440842040099</v>
@@ -1439,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0121353717118567</v>
+        <v>0.01213694961535</v>
       </c>
       <c r="C23" t="n">
         <v>0.0116675881134751</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00211864406779661</v>
+        <v>0.00213675213675214</v>
       </c>
       <c r="M23" t="n">
         <v>0.00157888227757434</v>
@@ -1483,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0118588184703199</v>
+        <v>0.011860421971525</v>
       </c>
       <c r="C24" t="n">
         <v>0.0181534494538846</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00211864406779661</v>
+        <v>0.00213675213675214</v>
       </c>
       <c r="M24" t="n">
         <v>0.0145714876622477</v>
@@ -1527,7 +1527,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0118260392039158</v>
+        <v>0.0118448430858872</v>
       </c>
       <c r="C25" t="n">
         <v>0.0104367920677232</v>
@@ -1557,7 +1557,7 @@
         <v>0.00182248133706443</v>
       </c>
       <c r="L25" t="n">
-        <v>0.034231927633594</v>
+        <v>0.0342942101307779</v>
       </c>
       <c r="M25" t="n">
         <v>0.0287109932216041</v>
@@ -1571,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00273230247393873</v>
+        <v>0.00273308067729567</v>
       </c>
       <c r="C26" t="n">
         <v>0.00435424111176936</v>
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0022669961546095</v>
+        <v>0.00226764183129959</v>
       </c>
       <c r="C27" t="n">
         <v>0.00261861189712449</v>
@@ -1659,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00151344322226091</v>
+        <v>0.00151387427504783</v>
       </c>
       <c r="C28" t="n">
         <v>0.00304902942842725</v>
